--- a/Cor_Tub_Data.xlsx
+++ b/Cor_Tub_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ponshp\Documents\Imp_Personal\Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492E8D1-E164-46F3-B137-D4EF0BD42715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A413438-7D7F-4299-82C0-AA43313BB15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Country</t>
   </si>
@@ -99,6 +99,27 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Transcontinental</t>
   </si>
 </sst>
 </file>
@@ -500,311 +521,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2992350</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>132399</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>900629</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1626071</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>65556</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>978615</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>719665</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>20160</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>439947</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>687862</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>10296</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>454329</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>305703</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10772</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>197619</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>298557</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6384</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>264371</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>285768</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>44236</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>261750</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>31119</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>159657</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>251789</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>28388</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>150376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>243051</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>11731</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>214083</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>241819</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>34869</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>192241</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>234509</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4839</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>134957</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>213716</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1968</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>149634</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>206844</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>5241</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>182995</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>205721</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3310</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>97848</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>198064</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>9092</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>182189</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>168335</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>29920</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>77319</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>165618</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2096</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>76149</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>120281</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4210</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>50370</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>105934</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>8693</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>69570</v>
       </c>
     </row>
@@ -817,7 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790D21DD-5E05-4B0E-955B-00B6B905B31B}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
